--- a/results/tables/table_S1.xlsx
+++ b/results/tables/table_S1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Fraction</t>
   </si>
@@ -38,6 +38,21 @@
   </si>
   <si>
     <t xml:space="preserve">Concordancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iJO1366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcriptome:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9+glucose</t>
   </si>
 </sst>
 </file>
@@ -47,11 +62,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,6 +89,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +141,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -128,6 +152,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -147,17 +175,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="5.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,6 +365,27 @@
       </c>
       <c r="K5" s="0" t="n">
         <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/table_S1.xlsx
+++ b/results/tables/table_S1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Fraction</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Biomass Flux</t>
   </si>
   <si>
-    <t xml:space="preserve">Concordancy</t>
+    <t xml:space="preserve">Concordance</t>
   </si>
   <si>
     <t xml:space="preserve">^</t>
@@ -53,6 +53,36 @@
   </si>
   <si>
     <t xml:space="preserve">M9+glucose</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*Concordance is the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> value resulting for Spearman correlation between sample reaction fluxes and the assign weight associated with each reaction</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -62,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,6 +124,19 @@
     <font>
       <b val="true"/>
       <sz val="15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -141,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,14 +201,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -175,10 +222,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,31 +387,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>16.9</v>
+        <v>0.169</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>33.9</v>
+        <v>0.339</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>37.4</v>
+        <v>0.374</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>36.4</v>
+        <v>0.364</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>35.5</v>
+        <v>0.355</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>37.6</v>
+        <v>0.376</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>38.6</v>
+        <v>0.386</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>39</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,7 +435,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:N12"/>
+  </mergeCells>
   <conditionalFormatting sqref="C4:K4">
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/results/tables/table_S1.xlsx
+++ b/results/tables/table_S1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Fraction</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Biomass Flux</t>
   </si>
   <si>
-    <t xml:space="preserve">Concordance</t>
+    <t xml:space="preserve">Spreaman Correlation Coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">^</t>
@@ -53,36 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">M9+glucose</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Concordance is the </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">rho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> value resulting for Spearman correlation between sample reaction fluxes and the assign weight associated with each reaction</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -92,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -129,13 +99,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -201,7 +164,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,12 +188,12 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.82"/>
@@ -436,9 +399,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
